--- a/scrapped.xlsx
+++ b/scrapped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,338 +471,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>230 John Portman Boulevard Northwest, Atlanta</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Omni Coffee &amp; Eggs - 230 John Portman Boulevard Northwest</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.toasttab.com/local/order/omni-coffee-eggs-americas-mart1-230-john-portman-boulevard-northwest/r-1512f536-4e9e-4a5e-85e3-8bdf1672f1c2</t>
+          <t>https://santafehaircompany.com/contact-us</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">230 John Portman Boulevard Northwest  Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4042542029</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30 Decatur Street Southeast, Atlanta</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mr. Fries Man - Atlanta</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/mrfriesmanatlanta/r-34a792d5-590f-443b-b084-8229e90a92f9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">30 Decatur Street Southeast  Atlanta, GA 30312 </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4042544381</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>33 Hurt Plaza Southeast, Atlanta</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L.A's Bar &amp; Grill</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/la-s-bar-grill-33-hurt-plaza-southeast/r-35eb39ae-dd2c-423b-aed9-ef75ec9a5f9a</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.lasbarandgrill.com/</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33 Hurt Plaza Southeast  Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4048196444</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>33 Edgewood Ave SE, Atlanta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sensational Subs</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/sensational-subs-33-edgewood-ave-se/r-ddbf023d-b322-460e-847c-f3937f879dd0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33 Edgewood Ave SE Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>275 Decatur Street Southeast, Atlanta</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Perfect Pear Juice Bar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://perfectpearjuicebar.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://perfectpearjuicebar.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20 Broad St. Suite E, Atlanta</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BINKY'S</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/binky-s-20-broad-st-suite-e/r-09b97661-1485-4d39-99f3-550caa1abd8e</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20 Broad St. Suite E  Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4049635704</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>229 Mitchell st, atlanta</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tyde Tate Kitchen - South Downtown</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/tyde-tate-kitchen-south-downtown-229-mitchell-st/r-cb979107-871c-4764-94d2-e23e522b72db</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">229 Mitchell st  atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4049074452</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>84 Peachtree Street Northwest, Atlanta</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Land of a Thousand Hills Flatiron</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/lthcoffeeflatiron/r-14c5edec-ba69-4afe-9dc6-be885ddb6f60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>http://www.drinkcoffeedogood.com</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">84 Peachtree Street Northwest  Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>8668754369</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2075 Northlake Parkway, Tucker</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Hudson Grille - Tucker - 2075 Northlake Parkway</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/hudson-grille-tucker-2075-northlake-parkway/r-b13c218e-d69c-43b6-b701-b1f07422615b</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2075 Northlake Parkway  Tucker, GA 30084 </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6783957342</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16 Jesse Hill Jr Dr, Atlanta</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Anh's Kitchen Downtown - 16 Jesse Hill Jr Dr</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.toasttab.com/local/order/anhs-kitchen-2-16-jesse-hill-jr-dr/r-d5b3f436-987b-4461-8c0f-4683ca1848a1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://anhkitchenatl.com/</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16 Jesse Hill Jr Dr  Atlanta, GA 30303 </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4049771779</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
